--- a/Data/Cloud Training/Labs & Quizes/labs_and_quizzes.xlsx
+++ b/Data/Cloud Training/Labs & Quizes/labs_and_quizzes.xlsx
@@ -1,42 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amalitech-my.sharepoint.com/personal/andrew_marfo_amalitech_com/Documents/Desktop/DE Labs/Week 6/Data/Cloud Training/Labs &amp; Quizes/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E176A5F0-7A1A-4F06-A315-675A1DEC6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9352CEE8-5C0B-4E7F-9943-6429DF68B4F5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1905" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Labs" sheetId="1" r:id="rId1"/>
+    <sheet name="Quizzes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>email</t>
   </si>
@@ -194,8 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,21 +237,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +281,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -344,7 +315,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -379,10 +349,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,14 +524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -632,7 +601,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -667,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -702,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -737,7 +706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -772,7 +741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -807,7 +776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -842,7 +811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -877,7 +846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -912,7 +881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -947,7 +916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -982,7 +951,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +986,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1122,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1192,7 +1161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1227,7 +1196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1262,7 +1231,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1297,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +1301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1367,7 +1336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1402,7 +1371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1437,7 +1406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1472,7 +1441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +1476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1511,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1577,7 +1546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1612,7 +1581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1647,7 +1616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1682,7 +1651,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1717,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1752,7 +1721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1787,7 +1756,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1822,7 +1791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1857,7 +1826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1892,7 +1861,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1927,7 +1896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1962,7 +1931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2002,295 +1971,1450 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="daa956c4-404d-44aa-be03-6756c355c5d1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c80f7d61-e407-4e4d-8da3-549d743a288b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007557929804FE1241AFC03551281AFAE4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90d04df0c1144e4e31d19cddd39e4fd9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8bd6af4a-c6a7-439b-8bd8-2c7a4cad7dcd" xmlns:ns3="daa956c4-404d-44aa-be03-6756c355c5d1" xmlns:ns4="c80f7d61-e407-4e4d-8da3-549d743a288b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ab3522574b5f672d4c9ac750a39e6d0" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="8bd6af4a-c6a7-439b-8bd8-2c7a4cad7dcd"/>
-    <xsd:import namespace="daa956c4-404d-44aa-be03-6756c355c5d1"/>
-    <xsd:import namespace="c80f7d61-e407-4e4d-8da3-549d743a288b"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8bd6af4a-c6a7-439b-8bd8-2c7a4cad7dcd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="daa956c4-404d-44aa-be03-6756c355c5d1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6f419559-0536-47b5-b359-5a778200eada" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c80f7d61-e407-4e4d-8da3-549d743a288b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{abc0acd6-5397-406e-b506-f127aabb4d3b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c80f7d61-e407-4e4d-8da3-549d743a288b">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84AE525-E9F6-41FD-AECB-97E670C6FB9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C17AD53-2FA0-4A4F-B092-9F083C5A748E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="daa956c4-404d-44aa-be03-6756c355c5d1"/>
-    <ds:schemaRef ds:uri="c80f7d61-e407-4e4d-8da3-549d743a288b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61FF3A68-5326-405D-855C-3ACD71D03EBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8bd6af4a-c6a7-439b-8bd8-2c7a4cad7dcd"/>
-    <ds:schemaRef ds:uri="daa956c4-404d-44aa-be03-6756c355c5d1"/>
-    <ds:schemaRef ds:uri="c80f7d61-e407-4e4d-8da3-549d743a288b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>84</v>
+      </c>
+      <c r="I2">
+        <v>44</v>
+      </c>
+      <c r="J2">
+        <v>49</v>
+      </c>
+      <c r="K2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>76</v>
+      </c>
+      <c r="G3">
+        <v>77</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>91</v>
+      </c>
+      <c r="J3">
+        <v>92</v>
+      </c>
+      <c r="K3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>82</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>52</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>93</v>
+      </c>
+      <c r="F6">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>52</v>
+      </c>
+      <c r="J6">
+        <v>91</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>79</v>
+      </c>
+      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <v>91</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>49</v>
+      </c>
+      <c r="J7">
+        <v>86</v>
+      </c>
+      <c r="K7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>53</v>
+      </c>
+      <c r="I8">
+        <v>91</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>98</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>87</v>
+      </c>
+      <c r="G9">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>92</v>
+      </c>
+      <c r="J9">
+        <v>84</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>67</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>66</v>
+      </c>
+      <c r="J10">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>86</v>
+      </c>
+      <c r="D11">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>94</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>58</v>
+      </c>
+      <c r="K11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>61</v>
+      </c>
+      <c r="H12">
+        <v>83</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>92</v>
+      </c>
+      <c r="E13">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>76</v>
+      </c>
+      <c r="H13">
+        <v>82</v>
+      </c>
+      <c r="I13">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>92</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>97</v>
+      </c>
+      <c r="H14">
+        <v>69</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>47</v>
+      </c>
+      <c r="K14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>77</v>
+      </c>
+      <c r="I15">
+        <v>99</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>78</v>
+      </c>
+      <c r="H16">
+        <v>58</v>
+      </c>
+      <c r="I16">
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>83</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>82</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>73</v>
+      </c>
+      <c r="F18">
+        <v>86</v>
+      </c>
+      <c r="G18">
+        <v>84</v>
+      </c>
+      <c r="H18">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <v>77</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>49</v>
+      </c>
+      <c r="H19">
+        <v>61</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>58</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>69</v>
+      </c>
+      <c r="J20">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>45</v>
+      </c>
+      <c r="G21">
+        <v>52</v>
+      </c>
+      <c r="H21">
+        <v>94</v>
+      </c>
+      <c r="I21">
+        <v>52</v>
+      </c>
+      <c r="J21">
+        <v>67</v>
+      </c>
+      <c r="K21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>81</v>
+      </c>
+      <c r="E22">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>54</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>95</v>
+      </c>
+      <c r="I22">
+        <v>58</v>
+      </c>
+      <c r="J22">
+        <v>59</v>
+      </c>
+      <c r="K22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>82</v>
+      </c>
+      <c r="F23">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>91</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>84</v>
+      </c>
+      <c r="J23">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>69</v>
+      </c>
+      <c r="H24">
+        <v>59</v>
+      </c>
+      <c r="I24">
+        <v>69</v>
+      </c>
+      <c r="J24">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>88</v>
+      </c>
+      <c r="H25">
+        <v>59</v>
+      </c>
+      <c r="I25">
+        <v>77</v>
+      </c>
+      <c r="J25">
+        <v>58</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>52</v>
+      </c>
+      <c r="E26">
+        <v>98</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>47</v>
+      </c>
+      <c r="H26">
+        <v>47</v>
+      </c>
+      <c r="I26">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>94</v>
+      </c>
+      <c r="K26">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>61</v>
+      </c>
+      <c r="E27">
+        <v>63</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>49</v>
+      </c>
+      <c r="H27">
+        <v>67</v>
+      </c>
+      <c r="I27">
+        <v>48</v>
+      </c>
+      <c r="J27">
+        <v>96</v>
+      </c>
+      <c r="K27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <v>97</v>
+      </c>
+      <c r="D28">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>97</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>81</v>
+      </c>
+      <c r="J28">
+        <v>97</v>
+      </c>
+      <c r="K28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>79</v>
+      </c>
+      <c r="C29">
+        <v>98</v>
+      </c>
+      <c r="D29">
+        <v>83</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>29</v>
+      </c>
+      <c r="G29">
+        <v>63</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>62</v>
+      </c>
+      <c r="J29">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>76</v>
+      </c>
+      <c r="C30">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>88</v>
+      </c>
+      <c r="E30">
+        <v>74</v>
+      </c>
+      <c r="F30">
+        <v>82</v>
+      </c>
+      <c r="G30">
+        <v>42</v>
+      </c>
+      <c r="H30">
+        <v>80</v>
+      </c>
+      <c r="I30">
+        <v>55</v>
+      </c>
+      <c r="J30">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>57</v>
+      </c>
+      <c r="E31">
+        <v>37</v>
+      </c>
+      <c r="F31">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>41</v>
+      </c>
+      <c r="J31">
+        <v>82</v>
+      </c>
+      <c r="K31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>79</v>
+      </c>
+      <c r="F32">
+        <v>89</v>
+      </c>
+      <c r="G32">
+        <v>73</v>
+      </c>
+      <c r="H32">
+        <v>46</v>
+      </c>
+      <c r="I32">
+        <v>48</v>
+      </c>
+      <c r="J32">
+        <v>89</v>
+      </c>
+      <c r="K32">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>80</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>35</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>57</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>84</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>59</v>
+      </c>
+      <c r="I34">
+        <v>42</v>
+      </c>
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="K34">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>88</v>
+      </c>
+      <c r="C35">
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>64</v>
+      </c>
+      <c r="F35">
+        <v>80</v>
+      </c>
+      <c r="G35">
+        <v>95</v>
+      </c>
+      <c r="H35">
+        <v>97</v>
+      </c>
+      <c r="I35">
+        <v>63</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>58</v>
+      </c>
+      <c r="E36">
+        <v>97</v>
+      </c>
+      <c r="F36">
+        <v>76</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>85</v>
+      </c>
+      <c r="I36">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>38</v>
+      </c>
+      <c r="K36">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>74</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>73</v>
+      </c>
+      <c r="F37">
+        <v>48</v>
+      </c>
+      <c r="G37">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <v>98</v>
+      </c>
+      <c r="I37">
+        <v>34</v>
+      </c>
+      <c r="J37">
+        <v>61</v>
+      </c>
+      <c r="K37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>87</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>86</v>
+      </c>
+      <c r="F38">
+        <v>28</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>90</v>
+      </c>
+      <c r="I38">
+        <v>59</v>
+      </c>
+      <c r="J38">
+        <v>62</v>
+      </c>
+      <c r="K38">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>80</v>
+      </c>
+      <c r="E39">
+        <v>97</v>
+      </c>
+      <c r="F39">
+        <v>69</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>97</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>84</v>
+      </c>
+      <c r="D40">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+      <c r="G40">
+        <v>90</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40">
+        <v>88</v>
+      </c>
+      <c r="J40">
+        <v>32</v>
+      </c>
+      <c r="K40">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <v>43</v>
+      </c>
+      <c r="F41">
+        <v>54</v>
+      </c>
+      <c r="G41">
+        <v>28</v>
+      </c>
+      <c r="H41">
+        <v>81</v>
+      </c>
+      <c r="I41">
+        <v>77</v>
+      </c>
+      <c r="J41">
+        <v>40</v>
+      </c>
+      <c r="K41">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>